--- a/materials/Figures.xlsx
+++ b/materials/Figures.xlsx
@@ -76,6 +76,63 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="447675"/>
+          <a:ext cx="4714875" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>パソコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1207,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,7 +1275,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="5936" divId="Figures_5936" sourceType="sheet" destinationFile="E:\gitrepos\github\yukisov\Programming-Introduction-with-JS\materials\Figures.htm"/>
+    <webPublishItem id="5936" divId="Figures_5936" sourceType="sheet" destinationFile="E:\gitrepos\github\yukisov\Programming-Introduction-with-JS\materials\Figures.files\Figures.htm"/>
   </webPublishItems>
 </worksheet>
 </file>

--- a/materials/Figures.xlsx
+++ b/materials/Figures.xlsx
@@ -4,15 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24795" windowHeight="10530"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24795" windowHeight="10530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Scratch の動作</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,6 +981,1004 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="533400"/>
+          <a:ext cx="5191125" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ウェブサーバ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="971550"/>
+          <a:ext cx="3448050" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scratch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で作ったプログラム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・保存形式不明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4076700" y="1819275"/>
+          <a:ext cx="4762" cy="482203"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="2276475"/>
+          <a:ext cx="3448050" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scratch</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ActionScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で書かれている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SWF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルとして保存されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790574" y="3657600"/>
+          <a:ext cx="5191125" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ブラウザ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Chrome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>など</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>言語で書かれている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マシン語で保存されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="3857625"/>
+          <a:ext cx="2400300" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Flash Player</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>言語で書かれている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マシン語で保存されている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143374" y="3086100"/>
+          <a:ext cx="838201" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143374" y="1838325"/>
+          <a:ext cx="838201" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="3143249"/>
+          <a:ext cx="0" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724149" y="4733925"/>
+          <a:ext cx="2771775" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ブラウザに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Flash Player </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>が組み込まれている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1264,9 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1284,24 +2291,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="31715" divId="Figures_31715" sourceType="sheet" destinationFile="E:\gitrepos\github\yukisov\Programming-Introduction-with-JS\materials\Figures2.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/materials/Figures.xlsx
+++ b/materials/Figures.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="24795" windowHeight="10530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="プログラムイメージ" sheetId="1" r:id="rId1"/>
+    <sheet name="プログラムイメージ２" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -987,6 +988,928 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="447675"/>
+          <a:ext cx="4714875" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>パソコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="885824"/>
+          <a:ext cx="4229100" cy="5086351"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Windows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>など）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="1238250"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="4743450"/>
+          <a:ext cx="3448050" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Windows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> の機能を使用するためのソフトウェア部品</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Microsoft</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が提供している。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Windows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> API</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="3019425"/>
+          <a:ext cx="3409950" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>インタプリタ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プログラムを読み込んで実行するためのソフトウェア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（プログラムを書いて実行する際には、このソフトウェアを実行することになる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例： </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Node.js </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>node </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コマンド </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="横巻き 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847849" y="1676401"/>
+          <a:ext cx="2181225" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>console.log( "Hello, World!" );</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2867025" y="4292204"/>
+          <a:ext cx="4762" cy="470296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="1771649"/>
+          <a:ext cx="1504950" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プログラムが記述されたテキストファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="4333875"/>
+          <a:ext cx="2533650" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内部から呼び出して使用している</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="2581275"/>
+          <a:ext cx="2676525" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>読み込むファイルを指定してインタプリタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2909887" y="2577704"/>
+          <a:ext cx="4763" cy="451246"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2294,6 +3217,24 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="14902" divId="Figures_14902" sourceType="sheet" destinationFile="E:\gitrepos\github\yukisov\Programming-Introduction-with-JS\materials\Figures3.htm"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
